--- a/sea-sketch-study/PGUS_results_2016_question_summary.xlsx
+++ b/sea-sketch-study/PGUS_results_2016_question_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/workspace/github/pgis-usability/sea-sketch-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FB91498-876B-304B-B2F1-736483521790}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91EAEEC3-DE01-7B41-8236-E66A032F0C9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">questions!$B$1:$L$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">questions!$B$1:$M$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>N</t>
   </si>
@@ -250,22 +250,17 @@
   </si>
   <si>
     <t>Distance from mean (%)</t>
+  </si>
+  <si>
+    <t>Mean PGUS score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -289,25 +284,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
+      <name val="Avenir Book"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -446,36 +459,36 @@
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -484,45 +497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,21 +508,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -917,279 +938,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="4.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="5" max="6" width="7.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>175</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>466</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="10">
+        <f>ROUND(E3/175/4*100,0)</f>
+        <v>67</v>
+      </c>
+      <c r="G3" s="9">
         <v>0.8</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="I3" s="10">
         <v>14</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="10">
         <v>48</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K3" s="10">
         <v>96</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="11">
         <v>17</v>
       </c>
-      <c r="L3" t="b">
-        <f>(K3+J3)&gt;SUM(G3:I3)</f>
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="b">
+        <f>(L3+K3)&gt;SUM(H3:J3)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.6629999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>175</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="13">
         <v>471</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F27" si="0">ROUND(E4/175/4*100,0)</f>
+        <v>67</v>
+      </c>
+      <c r="G4" s="14">
         <v>1.9</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="15">
         <v>18</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="15">
         <v>40</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="15">
         <v>95</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="16">
         <v>22</v>
       </c>
-      <c r="L4" t="b">
-        <f t="shared" ref="L4:L27" si="0">(K4+J4)&gt;SUM(G4:I4)</f>
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="b">
+        <f t="shared" ref="M4:M27" si="1">(L4+K4)&gt;SUM(H4:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>0.82099999999999995</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.6909999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>175</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>424</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G5" s="14">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
         <v>11</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="15">
         <v>85</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="15">
         <v>69</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="16">
         <v>9</v>
       </c>
-      <c r="L5" t="b">
-        <f t="shared" si="0"/>
+      <c r="M5" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.423</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>175</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="13">
         <v>451</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G6" s="14">
         <v>-2.4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="15">
         <v>18</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="15">
         <v>47</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="15">
         <v>89</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="16">
         <v>18</v>
       </c>
-      <c r="L6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="M6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>0.873</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>7</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.577</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>175</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1198,253 +1238,273 @@
       <c r="E7" s="18">
         <v>495</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G7" s="19">
         <v>7.1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="20">
         <v>7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="20">
         <v>41</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="20">
         <v>102</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="21">
         <v>25</v>
       </c>
-      <c r="L7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="M7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>7</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.8290000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>175</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>518</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G8" s="9">
         <v>12.1</v>
       </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
         <v>8</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="10">
         <v>29</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="10">
         <v>96</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="11">
         <v>41</v>
       </c>
-      <c r="L8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="M8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>13</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.96</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>175</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="13">
         <v>532</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G9" s="14">
         <v>15.1</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
         <v>8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="15">
         <v>18</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="15">
         <v>104</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="16">
         <v>44</v>
       </c>
-      <c r="L9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.5</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.76800000000000002</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>13</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3.04</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>175</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="13">
         <v>429</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G10" s="14">
         <v>-7.2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="13">
         <v>3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="15">
         <v>17</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="15">
         <v>70</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="15">
         <v>68</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="16">
         <v>17</v>
       </c>
-      <c r="L10" t="b">
-        <f t="shared" si="0"/>
+      <c r="M10" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>0.86199999999999999</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>13</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>175</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="13">
         <v>473</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G11" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="13">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="15">
         <v>20</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="15">
         <v>29</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="15">
         <v>101</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="16">
         <v>23</v>
       </c>
-      <c r="L11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>0.879</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>13</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.7029999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>175</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -1453,253 +1513,273 @@
       <c r="E12" s="18">
         <v>450</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G12" s="19">
         <v>-2.6</v>
       </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20">
         <v>17</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="20">
         <v>59</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="20">
         <v>77</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="21">
         <v>21</v>
       </c>
-      <c r="L12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="M12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
       <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>0.84699999999999998</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>13</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2.5710000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>175</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>428</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G13" s="9">
         <v>-7.4</v>
       </c>
-      <c r="G13" s="13">
+      <c r="H13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="14">
+      <c r="I13" s="10">
         <v>20</v>
       </c>
-      <c r="I13" s="14">
+      <c r="J13" s="10">
         <v>58</v>
       </c>
-      <c r="J13" s="14">
+      <c r="K13" s="10">
         <v>76</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="11">
         <v>16</v>
       </c>
-      <c r="L13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="M13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>0.91400000000000003</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>19</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="13">
         <v>456</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G14" s="14">
         <v>-1.3</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="15">
         <v>16</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="15">
         <v>52</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="15">
         <v>92</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="16">
         <v>15</v>
       </c>
-      <c r="L14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>0.77200000000000002</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>19</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.6059999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>175</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="13">
         <v>443</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G15" s="14">
         <v>-4.2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="15">
         <v>20</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="15">
         <v>59</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="15">
         <v>79</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="16">
         <v>17</v>
       </c>
-      <c r="L15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="M15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>0.82199999999999995</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>19</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.5310000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>175</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="13">
         <v>452</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G16" s="14">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="15">
         <v>9</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="15">
         <v>74</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="15">
         <v>73</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="16">
         <v>19</v>
       </c>
-      <c r="L16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
+      <c r="M16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>0.753</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>19</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>175</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1708,253 +1788,273 @@
       <c r="E17" s="18">
         <v>436</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G17" s="19">
         <v>-5.7</v>
       </c>
-      <c r="G17" s="18">
+      <c r="H17" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="20">
         <v>12</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="20">
         <v>78</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="20">
         <v>72</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="21">
         <v>13</v>
       </c>
-      <c r="L17" t="b">
-        <f t="shared" si="0"/>
+      <c r="M17" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>19</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>175</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>460</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G18" s="9">
         <v>-0.5</v>
       </c>
-      <c r="G18" s="13">
+      <c r="H18" s="8">
         <v>6</v>
       </c>
-      <c r="H18" s="14">
+      <c r="I18" s="10">
         <v>7</v>
       </c>
-      <c r="I18" s="14">
+      <c r="J18" s="10">
         <v>53</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K18" s="10">
         <v>89</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="11">
         <v>20</v>
       </c>
-      <c r="L18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="M18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>0.86699999999999999</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>25</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.629</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="13">
         <v>476</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G19" s="14">
         <v>3</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="15">
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="15">
         <v>53</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="15">
         <v>86</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="16">
         <v>26</v>
       </c>
-      <c r="L19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="M19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>25</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.72</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>175</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="13">
         <v>406</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G20" s="14">
         <v>-12.2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="13">
         <v>8</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="15">
         <v>32</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="15">
         <v>58</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="15">
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="16">
         <v>27</v>
       </c>
-      <c r="L20" t="b">
-        <f t="shared" si="0"/>
+      <c r="M20" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>1.083</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>25</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>175</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="13">
         <v>462</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G21" s="14">
         <v>-0.1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="13">
         <v>3</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="15">
         <v>16</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="15">
         <v>51</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="15">
         <v>76</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="16">
         <v>29</v>
       </c>
-      <c r="L21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M21">
+      <c r="M21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
       <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>0.92300000000000004</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>25</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.64</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>175</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -1963,253 +2063,273 @@
       <c r="E22" s="18">
         <v>529</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G22" s="19">
         <v>14.4</v>
       </c>
-      <c r="G22" s="18">
+      <c r="H22" s="18">
         <v>3</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="20">
         <v>8</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="20">
         <v>22</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="20">
         <v>91</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="21">
         <v>51</v>
       </c>
-      <c r="L22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="M22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
       <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>0.871</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>25</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3.0230000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>175</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
         <v>480</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G23" s="9">
         <v>3.8</v>
       </c>
-      <c r="G23" s="13">
+      <c r="H23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="14">
+      <c r="I23" s="10">
         <v>5</v>
       </c>
-      <c r="I23" s="14">
+      <c r="J23" s="10">
         <v>55</v>
       </c>
-      <c r="J23" s="14">
+      <c r="K23" s="10">
         <v>83</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="11">
         <v>29</v>
       </c>
-      <c r="L23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="M23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
       <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>0.82799999999999996</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>31</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.7429999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>175</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="13">
         <v>425</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G24" s="14">
         <v>-8.1</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="13">
         <v>2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="15">
         <v>30</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="15">
         <v>52</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="15">
         <v>73</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="16">
         <v>18</v>
       </c>
-      <c r="L24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M24">
+      <c r="M24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
       <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>0.93100000000000005</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>31</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.4289999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>175</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="13">
         <v>523</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G25" s="14">
         <v>13.1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="15">
         <v>8</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="15">
         <v>24</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="15">
         <v>105</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="16">
         <v>38</v>
       </c>
-      <c r="L25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="M25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.73499999999999999</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>31</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.9889999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>175</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="13">
         <v>450</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G26" s="14">
         <v>-2.6</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="15">
         <v>7</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="15">
         <v>85</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="15">
         <v>59</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="16">
         <v>24</v>
       </c>
-      <c r="L26" t="b">
-        <f t="shared" si="0"/>
+      <c r="M26" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
       <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>0.77600000000000002</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>31</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.5710000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2218,195 +2338,214 @@
       <c r="E27" s="18">
         <v>421</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="19">
         <v>-8.9</v>
       </c>
-      <c r="G27" s="18">
+      <c r="H27" s="18">
         <v>2</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="20">
         <v>15</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="20">
         <v>86</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="20">
         <v>54</v>
       </c>
-      <c r="K27" s="7">
+      <c r="L27" s="21">
         <v>18</v>
       </c>
-      <c r="L27" t="b">
-        <f t="shared" si="0"/>
+      <c r="M27" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>0.83099999999999996</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>31</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.4060000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="C30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="26">
         <v>2307</v>
       </c>
-      <c r="F30">
-        <f>E30-AVERAGE($E$30:$E$34)</f>
-        <v>-4.1999999999998181</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="26">
+        <f>ROUND(E30/175/20*100,1)</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="G30" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="H30" s="26">
         <v>4</v>
       </c>
-      <c r="H30">
+      <c r="I30" s="26">
         <v>68</v>
       </c>
-      <c r="I30">
+      <c r="J30" s="26">
         <v>261</v>
       </c>
-      <c r="J30">
+      <c r="K30" s="26">
         <v>451</v>
       </c>
-      <c r="K30">
+      <c r="L30" s="27">
         <v>91</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <f>AVERAGE(E3:E27)</f>
         <v>462.24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="C31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="28">
         <v>2402</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F34" si="1">E31-AVERAGE($E$30:$E$34)</f>
-        <v>90.800000000000182</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="28">
+        <f>ROUND(E31/175/20*100,1)</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="H31" s="28">
         <v>8</v>
       </c>
-      <c r="H31">
+      <c r="I31" s="28">
         <v>70</v>
       </c>
-      <c r="I31">
+      <c r="J31" s="28">
         <v>205</v>
       </c>
-      <c r="J31">
+      <c r="K31" s="28">
         <v>446</v>
       </c>
-      <c r="K31">
+      <c r="L31" s="29">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="C32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="28">
         <v>2215</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>-96.199999999999818</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="28">
+        <f>ROUND(E32/175/20*100,1)</f>
+        <v>63.3</v>
+      </c>
+      <c r="G32" s="14">
+        <v>-4.2</v>
+      </c>
+      <c r="H32" s="28">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="I32" s="28">
         <v>77</v>
       </c>
-      <c r="I32">
+      <c r="J32" s="28">
         <v>321</v>
       </c>
-      <c r="J32">
+      <c r="K32" s="28">
         <v>392</v>
       </c>
-      <c r="K32">
+      <c r="L32" s="29">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="33" spans="3:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="C33" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="28">
         <v>2333</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>21.800000000000182</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="28">
+        <f>ROUND(E33/175/20*100,1)</f>
+        <v>66.7</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="28">
         <v>22</v>
       </c>
-      <c r="H33">
+      <c r="I33" s="28">
         <v>71</v>
       </c>
-      <c r="I33">
+      <c r="J33" s="28">
         <v>237</v>
       </c>
-      <c r="J33">
+      <c r="K33" s="28">
         <v>392</v>
       </c>
-      <c r="K33">
+      <c r="L33" s="29">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="34" spans="3:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="C34" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="31">
         <v>2299</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>-12.199999999999818</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="31">
+        <f>ROUND(E34/175/20*100,1)</f>
+        <v>65.7</v>
+      </c>
+      <c r="G34" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="H34" s="31">
         <v>7</v>
       </c>
-      <c r="H34">
+      <c r="I34" s="31">
         <v>65</v>
       </c>
-      <c r="I34">
+      <c r="J34" s="31">
         <v>302</v>
       </c>
-      <c r="J34">
+      <c r="K34" s="31">
         <v>374</v>
       </c>
-      <c r="K34">
+      <c r="L34" s="32">
         <v>127</v>
       </c>
     </row>
@@ -2414,9 +2553,9 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K27">
-    <cfRule type="colorScale" priority="3">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H3:L27">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2424,7 +2563,7 @@
         <color theme="4"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2433,8 +2572,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G3:G27">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2445,13 +2584,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:K34">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H30:L34">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="0"/>
         <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
